--- a/result/with_base/123/arousal/s13_5.xlsx
+++ b/result/with_base/123/arousal/s13_5.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.804999977350235</v>
+        <v>0.8549107015132904</v>
       </c>
       <c r="C2" t="n">
-        <v>41738.572265625</v>
+        <v>11300.46630859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8684090917760675</v>
+        <v>0.8611475825309753</v>
       </c>
       <c r="E2" t="n">
-        <v>41732.86079545454</v>
+        <v>11299.66377527574</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8650000095367432</v>
+        <v>0.8766741156578064</v>
       </c>
       <c r="C3" t="n">
-        <v>40953.349609375</v>
+        <v>10996.82177734375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8884090889583934</v>
+        <v>0.8959427510990816</v>
       </c>
       <c r="E3" t="n">
-        <v>40952.16725852273</v>
+        <v>10995.33542049632</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8974999785423279</v>
+        <v>0.8928571343421936</v>
       </c>
       <c r="C4" t="n">
-        <v>40179.705078125</v>
+        <v>10697.21875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9212500073693015</v>
+        <v>0.9120929626857534</v>
       </c>
       <c r="E4" t="n">
-        <v>40175.33948863636</v>
+        <v>10695.58570772059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39412.23828125</v>
+        <v>10402.28076171875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9435227296569131</v>
+        <v>0.9180015746284934</v>
       </c>
       <c r="E5" t="n">
-        <v>39409.81356534091</v>
+        <v>10400.74396829044</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C6" t="n">
-        <v>38658.583984375</v>
+        <v>10113.33544921875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9487499973990701</v>
+        <v>0.9147190136068007</v>
       </c>
       <c r="E6" t="n">
-        <v>38656.11754261364</v>
+        <v>10112.27429917279</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.90625</v>
       </c>
       <c r="C7" t="n">
-        <v>37915.98828125</v>
+        <v>9831.228515625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9645454558459196</v>
+        <v>0.9368434863931993</v>
       </c>
       <c r="E7" t="n">
-        <v>37913.21839488636</v>
+        <v>9829.682329963236</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C8" t="n">
-        <v>37185.77734375</v>
+        <v>9555.603515625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9628408984704451</v>
+        <v>0.9390756312538596</v>
       </c>
       <c r="E8" t="n">
-        <v>37183.20134943182</v>
+        <v>9553.951516544117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36467.279296875</v>
+        <v>9285.7333984375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9647727337750521</v>
+        <v>0.9538471628637875</v>
       </c>
       <c r="E9" t="n">
-        <v>36465.02166193182</v>
+        <v>9284.4140625</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.91796875</v>
       </c>
       <c r="C10" t="n">
-        <v>35761.041015625</v>
+        <v>9022.62744140625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9794318296692588</v>
+        <v>0.9726234253715066</v>
       </c>
       <c r="E10" t="n">
-        <v>35758.63139204546</v>
+        <v>9021.425034466913</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C11" t="n">
-        <v>35067.833984375</v>
+        <v>8765.7001953125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9802272861654108</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E11" t="n">
-        <v>35065.31036931818</v>
+        <v>8764.833639705883</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34387.78125</v>
+        <v>8516.27392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9698863788084551</v>
+        <v>0.9676339275696698</v>
       </c>
       <c r="E12" t="n">
-        <v>34384.70561079546</v>
+        <v>8515.113970588236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9185267984867096</v>
       </c>
       <c r="C13" t="n">
-        <v>33718.259765625</v>
+        <v>8272.0625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9848863753405485</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E13" t="n">
-        <v>33715.36044034091</v>
+        <v>8271.090073529413</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9375</v>
+        <v>0.9140625</v>
       </c>
       <c r="C14" t="n">
-        <v>33060.92578125</v>
+        <v>8034.855224609375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9801136472008445</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E14" t="n">
-        <v>33058.56036931818</v>
+        <v>8033.685288373162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9185267984867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32415.6689453125</v>
+        <v>7803.114013671875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9882954629984769</v>
+        <v>0.9837184863931993</v>
       </c>
       <c r="E15" t="n">
-        <v>32413.38796164773</v>
+        <v>7802.171128216912</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31782.2021484375</v>
+        <v>7577.564208984375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9828650215092827</v>
       </c>
       <c r="E16" t="n">
-        <v>31779.99786931818</v>
+        <v>7576.685661764706</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C17" t="n">
-        <v>31160.6513671875</v>
+        <v>7357.99951171875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9854910724303302</v>
       </c>
       <c r="E17" t="n">
-        <v>31158.26633522727</v>
+        <v>7357.08504710478</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C18" t="n">
-        <v>30550.43359375</v>
+        <v>7143.9189453125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E18" t="n">
-        <v>30547.90394176136</v>
+        <v>7143.127585018382</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C19" t="n">
-        <v>29950.896484375</v>
+        <v>6935.972412109375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9764968472368577</v>
       </c>
       <c r="E19" t="n">
-        <v>29948.78444602273</v>
+        <v>6934.97012867647</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9308035671710968</v>
       </c>
       <c r="C20" t="n">
-        <v>29363.2275390625</v>
+        <v>6732.807861328125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9860162805108463</v>
       </c>
       <c r="E20" t="n">
-        <v>29360.76509232954</v>
+        <v>6732.055405560662</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C21" t="n">
-        <v>28785.4462890625</v>
+        <v>6535.2998046875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E21" t="n">
-        <v>28783.53835227273</v>
+        <v>6534.656853170956</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28219.1962890625</v>
+        <v>6343.241455078125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E22" t="n">
-        <v>28217.13618607954</v>
+        <v>6342.566693474265</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27662.54296875</v>
+        <v>6156.237548828125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9951136383143339</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E23" t="n">
-        <v>27661.15855823864</v>
+        <v>6155.563361672794</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C24" t="n">
-        <v>27117.451171875</v>
+        <v>5974.219482421875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E24" t="n">
-        <v>27115.65838068182</v>
+        <v>5973.554716222427</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26582.623046875</v>
+        <v>5796.970458984375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E25" t="n">
-        <v>26580.41832386364</v>
+        <v>5796.402286305147</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9224330484867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26056.4677734375</v>
+        <v>5624.61865234375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E26" t="n">
-        <v>26054.99129971591</v>
+        <v>5624.062471277573</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C27" t="n">
-        <v>25541.0322265625</v>
+        <v>5456.951171875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E27" t="n">
-        <v>25539.49005681818</v>
+        <v>5456.380859375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C28" t="n">
-        <v>25034.7138671875</v>
+        <v>5293.806884765625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E28" t="n">
-        <v>25033.55717329546</v>
+        <v>5293.265309053309</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9475446343421936</v>
       </c>
       <c r="C29" t="n">
-        <v>24538.25390625</v>
+        <v>5135.0009765625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E29" t="n">
-        <v>24537.12926136364</v>
+        <v>5134.584673713235</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9308035671710968</v>
       </c>
       <c r="C30" t="n">
-        <v>24051.56640625</v>
+        <v>4980.60546875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E30" t="n">
-        <v>24050.02077414773</v>
+        <v>4980.271369485294</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23573.09375</v>
+        <v>4830.749267578125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E31" t="n">
-        <v>23572.056640625</v>
+        <v>4830.256462545956</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C32" t="n">
-        <v>23104.60546875</v>
+        <v>4684.7861328125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E32" t="n">
-        <v>23103.08718039773</v>
+        <v>4684.279842601103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22643.9814453125</v>
+        <v>4542.75146484375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E33" t="n">
-        <v>22642.93838778409</v>
+        <v>4542.302447150735</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22192.4013671875</v>
+        <v>4404.77685546875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E34" t="n">
-        <v>22191.49058948864</v>
+        <v>4404.32169117647</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9296875</v>
       </c>
       <c r="C35" t="n">
-        <v>21750.025390625</v>
+        <v>4270.475341796875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E35" t="n">
-        <v>21748.50727982954</v>
+        <v>4270.117388556985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21314.6435546875</v>
+        <v>4139.999755859375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E36" t="n">
-        <v>21313.80291193182</v>
+        <v>4139.644818474265</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C37" t="n">
-        <v>20888.1318359375</v>
+        <v>4013.138793945312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E37" t="n">
-        <v>20887.35688920454</v>
+        <v>4012.774284811581</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20469.86328125</v>
+        <v>3889.853393554688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9896927510990816</v>
       </c>
       <c r="E38" t="n">
-        <v>20468.89861505682</v>
+        <v>3889.472440831802</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C39" t="n">
-        <v>20059.193359375</v>
+        <v>3769.923461914062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E39" t="n">
-        <v>20058.35369318182</v>
+        <v>3769.574721392463</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C40" t="n">
-        <v>19656.470703125</v>
+        <v>3653.334350585938</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9906118687461404</v>
       </c>
       <c r="E40" t="n">
-        <v>19655.56214488636</v>
+        <v>3653.029411764706</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19260.955078125</v>
+        <v>3540.011840820312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9986213235294118</v>
       </c>
       <c r="E41" t="n">
-        <v>19260.35404829546</v>
+        <v>3539.732594209559</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9375</v>
       </c>
       <c r="C42" t="n">
-        <v>18873.3603515625</v>
+        <v>3429.956787109375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E42" t="n">
-        <v>18872.63103693182</v>
+        <v>3429.637882008272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18492.7978515625</v>
+        <v>3322.949462890625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E43" t="n">
-        <v>18492.22549715909</v>
+        <v>3322.65230066636</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18119.64453125</v>
+        <v>3218.895385742188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E44" t="n">
-        <v>18119.00159801136</v>
+        <v>3218.670352711397</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9375</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C45" t="n">
-        <v>17753.8505859375</v>
+        <v>3117.859008789062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9980304626857534</v>
       </c>
       <c r="E45" t="n">
-        <v>17752.85919744318</v>
+        <v>3117.647733800552</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C46" t="n">
-        <v>17394.4482421875</v>
+        <v>3019.74658203125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E46" t="n">
-        <v>17393.63725142046</v>
+        <v>3019.50776941636</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C47" t="n">
-        <v>17042.037109375</v>
+        <v>2924.425048828125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E47" t="n">
-        <v>17041.23668323864</v>
+        <v>2924.163014131434</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16696.095703125</v>
+        <v>2831.703125</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E48" t="n">
-        <v>16695.51793323864</v>
+        <v>2831.507510914522</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.94140625</v>
       </c>
       <c r="C49" t="n">
-        <v>16356.97119140625</v>
+        <v>2741.768798828125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E49" t="n">
-        <v>16356.34552556818</v>
+        <v>2741.539292279412</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C50" t="n">
-        <v>16024.12744140625</v>
+        <v>2654.334228515625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E50" t="n">
-        <v>16023.59854403409</v>
+        <v>2654.135756548713</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,905 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15697.8525390625</v>
+        <v>2569.50146484375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E51" t="n">
-        <v>15697.20383522727</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15377.54150390625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15376.98100142045</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15063.431640625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15062.87331321023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14755.2724609375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14754.74769176136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14452.8984375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14452.48561789773</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14156.4677734375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14155.98641690341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13865.60888671875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13865.14985795455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13580.234375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13579.84321732955</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13300.34326171875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13299.96883877841</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13025.81396484375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13025.47682883523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12756.623046875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12756.21635298295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12492.533203125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12492.13441051136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12233.61279296875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12233.13210227273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11979.39599609375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11979.08256392045</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11730.24658203125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11729.91148792614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11485.82958984375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11485.54403409091</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11246.09375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11245.86780894886</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11011.04296875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11010.80397727273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10780.68505859375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10780.30823863636</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10554.474609375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10554.23357599432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10333.1025390625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9914772781458768</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10332.57705965909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10115.3671875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10115.13938210227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9902.1826171875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9901.947531960228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9693.10693359375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9692.886452414772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9488.12939453125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9487.885387073864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9287.05517578125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9286.865855823864</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9089.95458984375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9089.76553622159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8896.689453125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8896.516068892046</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8707.21142578125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8707.033558238636</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8521.39453125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8521.249644886364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8339.2568359375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8339.101118607954</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3714285714285714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7714285714285715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004878048780487805</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7714285714285715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.004878048780487805</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.00975609756097561</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.00975609756097561</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.05365853658536585</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.05365853658536585</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9142857142857143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05853658536585366</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9142857142857143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05853658536585366</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9428571428571428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1268292682926829</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9428571428571428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1268292682926829</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9714285714285714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1804878048780488</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9714285714285714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1804878048780488</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9857839721254356</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8585365853658536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8780487804878049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9414634146341463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9414634146341463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9463414634146341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9463414634146341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9902439024390244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9902439024390244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9951219512195122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2285714285714286</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9951219512195122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2285714285714286</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9744947735191638</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2569.296070772059</v>
       </c>
     </row>
   </sheetData>
